--- a/Pool Oric/Ball Trap.xlsx
+++ b/Pool Oric/Ball Trap.xlsx
@@ -1,22 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10609"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/pierre/Documents/GitHub/Oric/Pool Oric/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\osdk_1_12\0- Projets\Oric\Pool Oric\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{67D2A50A-7AEF-AE43-A54F-D285C0B207F7}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{988D09B7-70AE-4743-8F50-BEB3C7751D5E}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2720" yWindow="460" windowWidth="15960" windowHeight="15040" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" tabRatio="500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuille1" sheetId="1" r:id="rId1"/>
   </sheets>
   <calcPr calcId="181029"/>
   <extLst>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+      </xcalcf:calcFeatures>
+    </ext>
     <ext xmlns:loext="http://schemas.libreoffice.org/" uri="{7626C862-2A13-11E5-B345-FEFF819CDC9F}">
       <loext:extCalcPr stringRefSyntax="CalcA1ExcelA1"/>
     </ext>
@@ -861,21 +866,21 @@
   <dimension ref="A1:AMK202"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="S50" sqref="S50"/>
+      <selection activeCell="AZ11" sqref="AZ11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="13"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.85546875" defaultRowHeight="12.75"/>
   <cols>
-    <col min="1" max="27" width="2.1640625" style="1" customWidth="1"/>
-    <col min="28" max="29" width="5.1640625" style="1" customWidth="1"/>
-    <col min="30" max="34" width="5.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="35" max="35" width="5.1640625" style="1" customWidth="1"/>
-    <col min="36" max="40" width="5.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="41" max="41" width="5.1640625" style="1" customWidth="1"/>
-    <col min="42" max="46" width="5.1640625" style="1" hidden="1" customWidth="1"/>
-    <col min="47" max="47" width="5.1640625" style="1" customWidth="1"/>
-    <col min="48" max="48" width="26.6640625" style="1" customWidth="1"/>
-    <col min="49" max="1025" width="2.1640625" style="1" customWidth="1"/>
+    <col min="1" max="27" width="2.140625" style="1" customWidth="1"/>
+    <col min="28" max="29" width="5.140625" style="1" customWidth="1"/>
+    <col min="30" max="34" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="35" max="35" width="5.140625" style="1" customWidth="1"/>
+    <col min="36" max="40" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="41" max="41" width="5.140625" style="1" customWidth="1"/>
+    <col min="42" max="46" width="5.140625" style="1" hidden="1" customWidth="1"/>
+    <col min="47" max="47" width="5.140625" style="1" customWidth="1"/>
+    <col min="48" max="48" width="26.7109375" style="1" customWidth="1"/>
+    <col min="49" max="1025" width="2.140625" style="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:48" ht="10.5" customHeight="1">
@@ -916,7 +921,7 @@
       <c r="F2" s="2"/>
       <c r="L2" s="2"/>
       <c r="N2" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O2" s="1">
         <v>1</v>
@@ -934,6 +939,9 @@
         <v>1</v>
       </c>
       <c r="T2" s="1">
+        <v>1</v>
+      </c>
+      <c r="U2" s="1">
         <v>1</v>
       </c>
       <c r="X2" s="2"/>
@@ -950,15 +958,15 @@
       </c>
       <c r="AO2" s="1">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="AU2" s="1">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AV2" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   12,0,31,48</v>
+        <v>.byt   12,0,15,56</v>
       </c>
     </row>
     <row r="3" spans="1:48" ht="10.5" customHeight="1">
@@ -992,10 +1000,16 @@
       </c>
       <c r="L3" s="2"/>
       <c r="M3" s="1">
+        <v>0</v>
+      </c>
+      <c r="N3" s="1">
         <v>1</v>
       </c>
       <c r="R3" s="2"/>
       <c r="U3" s="1">
+        <v>0</v>
+      </c>
+      <c r="V3" s="1">
         <v>1</v>
       </c>
       <c r="X3" s="2"/>
@@ -1012,15 +1026,15 @@
       </c>
       <c r="AO3" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU3" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV3" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   30,62,32,8</v>
+        <v>.byt   30,62,16,4</v>
       </c>
     </row>
     <row r="4" spans="1:48" ht="10.5" customHeight="1">
@@ -1054,10 +1068,16 @@
       </c>
       <c r="L4" s="2"/>
       <c r="M4" s="1">
+        <v>0</v>
+      </c>
+      <c r="N4" s="1">
         <v>1</v>
       </c>
       <c r="R4" s="2"/>
       <c r="U4" s="1">
+        <v>0</v>
+      </c>
+      <c r="V4" s="1">
         <v>1</v>
       </c>
       <c r="X4" s="2"/>
@@ -1074,15 +1094,15 @@
       </c>
       <c r="AO4" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU4" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV4" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   30,62,32,8</v>
+        <v>.byt   30,62,16,4</v>
       </c>
     </row>
     <row r="5" spans="1:48" ht="10.5" customHeight="1">
@@ -1110,10 +1130,16 @@
       </c>
       <c r="L5" s="2"/>
       <c r="M5" s="1">
+        <v>0</v>
+      </c>
+      <c r="N5" s="1">
         <v>1</v>
       </c>
       <c r="R5" s="2"/>
       <c r="U5" s="1">
+        <v>0</v>
+      </c>
+      <c r="V5" s="1">
         <v>1</v>
       </c>
       <c r="X5" s="2"/>
@@ -1130,15 +1156,15 @@
       </c>
       <c r="AO5" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU5" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV5" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   30,28,32,8</v>
+        <v>.byt   30,28,16,4</v>
       </c>
     </row>
     <row r="6" spans="1:48" ht="10.5" customHeight="1">
@@ -1154,10 +1180,16 @@
       </c>
       <c r="L6" s="2"/>
       <c r="M6" s="1">
+        <v>0</v>
+      </c>
+      <c r="N6" s="1">
         <v>1</v>
       </c>
       <c r="R6" s="2"/>
       <c r="U6" s="1">
+        <v>0</v>
+      </c>
+      <c r="V6" s="1">
         <v>1</v>
       </c>
       <c r="X6" s="2"/>
@@ -1174,25 +1206,31 @@
       </c>
       <c r="AO6" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU6" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV6" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   12,8,32,8</v>
+        <v>.byt   12,8,16,4</v>
       </c>
     </row>
     <row r="7" spans="1:48" ht="10.5" customHeight="1">
       <c r="F7" s="2"/>
       <c r="L7" s="2"/>
       <c r="M7" s="1">
+        <v>0</v>
+      </c>
+      <c r="N7" s="1">
         <v>1</v>
       </c>
       <c r="R7" s="2"/>
       <c r="U7" s="1">
+        <v>0</v>
+      </c>
+      <c r="V7" s="1">
         <v>1</v>
       </c>
       <c r="X7" s="2"/>
@@ -1209,15 +1247,15 @@
       </c>
       <c r="AO7" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU7" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV7" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   0,0,32,8</v>
+        <v>.byt   0,0,16,4</v>
       </c>
     </row>
     <row r="8" spans="1:48" ht="10.5" customHeight="1">
@@ -1276,10 +1314,16 @@
       </c>
       <c r="L9" s="2"/>
       <c r="M9" s="1">
+        <v>0</v>
+      </c>
+      <c r="N9" s="1">
         <v>1</v>
       </c>
       <c r="R9" s="2"/>
       <c r="U9" s="1">
+        <v>0</v>
+      </c>
+      <c r="V9" s="1">
         <v>1</v>
       </c>
       <c r="X9" s="2"/>
@@ -1296,15 +1340,15 @@
       </c>
       <c r="AO9" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU9" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV9" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   63,48,32,8</v>
+        <v>.byt   63,48,16,4</v>
       </c>
     </row>
     <row r="10" spans="1:48" ht="10.5" customHeight="1">
@@ -1340,10 +1384,16 @@
       </c>
       <c r="L10" s="2"/>
       <c r="M10" s="1">
+        <v>0</v>
+      </c>
+      <c r="N10" s="1">
         <v>1</v>
       </c>
       <c r="R10" s="2"/>
       <c r="U10" s="1">
+        <v>0</v>
+      </c>
+      <c r="V10" s="1">
         <v>1</v>
       </c>
       <c r="X10" s="2"/>
@@ -1360,15 +1410,15 @@
       </c>
       <c r="AO10" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU10" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV10" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   63,60,32,8</v>
+        <v>.byt   63,60,16,4</v>
       </c>
     </row>
     <row r="11" spans="1:48" ht="10.5" customHeight="1">
@@ -1407,10 +1457,16 @@
       </c>
       <c r="L11" s="2"/>
       <c r="M11" s="1">
+        <v>0</v>
+      </c>
+      <c r="N11" s="1">
         <v>1</v>
       </c>
       <c r="R11" s="2"/>
       <c r="U11" s="1">
+        <v>0</v>
+      </c>
+      <c r="V11" s="1">
         <v>1</v>
       </c>
       <c r="X11" s="2"/>
@@ -1427,15 +1483,15 @@
       </c>
       <c r="AO11" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU11" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV11" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   63,62,32,8</v>
+        <v>.byt   63,62,16,4</v>
       </c>
     </row>
     <row r="12" spans="1:48" ht="10.5" customHeight="1">
@@ -1474,10 +1530,16 @@
       </c>
       <c r="L12" s="2"/>
       <c r="M12" s="1">
+        <v>0</v>
+      </c>
+      <c r="N12" s="1">
         <v>1</v>
       </c>
       <c r="R12" s="2"/>
       <c r="U12" s="1">
+        <v>0</v>
+      </c>
+      <c r="V12" s="1">
         <v>1</v>
       </c>
       <c r="X12" s="2"/>
@@ -1494,15 +1556,15 @@
       </c>
       <c r="AO12" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU12" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV12" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   63,62,32,8</v>
+        <v>.byt   63,62,16,4</v>
       </c>
     </row>
     <row r="13" spans="1:48" ht="10.5" customHeight="1">
@@ -1541,10 +1603,16 @@
       </c>
       <c r="L13" s="2"/>
       <c r="M13" s="1">
+        <v>0</v>
+      </c>
+      <c r="N13" s="1">
         <v>1</v>
       </c>
       <c r="R13" s="2"/>
       <c r="U13" s="1">
+        <v>0</v>
+      </c>
+      <c r="V13" s="1">
         <v>1</v>
       </c>
       <c r="X13" s="2"/>
@@ -1561,15 +1629,15 @@
       </c>
       <c r="AO13" s="1">
         <f t="shared" si="2"/>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="AU13" s="1">
         <f t="shared" si="3"/>
-        <v>8</v>
+        <v>4</v>
       </c>
       <c r="AV13" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   63,62,32,8</v>
+        <v>.byt   63,62,16,4</v>
       </c>
     </row>
     <row r="14" spans="1:48" ht="10.5" customHeight="1">
@@ -1605,7 +1673,7 @@
       </c>
       <c r="L14" s="2"/>
       <c r="N14" s="1">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="O14" s="1">
         <v>1</v>
@@ -1623,6 +1691,9 @@
         <v>1</v>
       </c>
       <c r="T14" s="1">
+        <v>1</v>
+      </c>
+      <c r="U14" s="1">
         <v>1</v>
       </c>
       <c r="X14" s="2"/>
@@ -1639,15 +1710,15 @@
       </c>
       <c r="AO14" s="1">
         <f t="shared" si="2"/>
-        <v>31</v>
+        <v>15</v>
       </c>
       <c r="AU14" s="1">
         <f t="shared" si="3"/>
-        <v>48</v>
+        <v>56</v>
       </c>
       <c r="AV14" s="1" t="str">
         <f t="shared" si="4"/>
-        <v>.byt   63,60,31,48</v>
+        <v>.byt   63,60,15,56</v>
       </c>
     </row>
     <row r="15" spans="1:48" ht="10.5" customHeight="1">
@@ -7217,7 +7288,7 @@
         <v>0</v>
       </c>
       <c r="AV193" s="1" t="str">
-        <f t="shared" ref="AV193:AV256" si="19">CONCATENATE(".byt   ",AC193,",",AI193,",",AO193,",",AU193)</f>
+        <f t="shared" ref="AV193:AV201" si="19">CONCATENATE(".byt   ",AC193,",",AI193,",",AO193,",",AU193)</f>
         <v>.byt   0,0,0,0</v>
       </c>
     </row>
